--- a/sigtap_grupos.xlsx
+++ b/sigtap_grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/SIH_procedimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2CC17F22-35EF-455A-BDC5-56A7240D5D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD20A87E-5036-408A-9FEB-DFF5389526C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="106_{E53B3EAB-5D15-4265-94BC-CEF729DDE747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B493C197-F8F2-426A-9152-2BD62AE05373}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
